--- a/html/resources/aoiConditions/train1P2Block3.xlsx
+++ b/html/resources/aoiConditions/train1P2Block3.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/16_icecream.png</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
-  </si>
-  <si>
-    <t>pngimages/09_plane.png</t>
-  </si>
-  <si>
-    <t>pngimages/10_backpack.png</t>
+    <t>trainingaudio/26_kapako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/26_pineapple.png</t>
+  </si>
+  <si>
+    <t>pngimages/20_pizza.png</t>
+  </si>
+  <si>
+    <t>pngimages/08_bell.png</t>
+  </si>
+  <si>
+    <t>pngimages/05_megaphone.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/aoiConditions/train1P2Block3.xlsx
+++ b/html/resources/aoiConditions/train1P2Block3.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/26_kapako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.wav</t>
-  </si>
-  <si>
     <t>trainingaudio/08_tipako2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/05_titopo2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/26_pineapple.png</t>
-  </si>
-  <si>
-    <t>pngimages/20_pizza.png</t>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.wav</t>
   </si>
   <si>
     <t>pngimages/08_bell.png</t>
   </si>
   <si>
-    <t>pngimages/05_megaphone.png</t>
+    <t>pngimages/07_suitcase.png</t>
+  </si>
+  <si>
+    <t>pngimages/03_box.png</t>
+  </si>
+  <si>
+    <t>pngimages/01_gift.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/aoiConditions/train1P2Block3.xlsx
+++ b/html/resources/aoiConditions/train1P2Block3.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/08_tipako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
+    <t>trainingaudio/08_tipako2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.mp3</t>
   </si>
   <si>
     <t>pngimages/08_bell.png</t>

--- a/html/resources/aoiConditions/train1P2Block3.xlsx
+++ b/html/resources/aoiConditions/train1P2Block3.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/08_tipako2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.mp3</t>
+    <t>trainingaudio/08_tipako2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.ogg</t>
   </si>
   <si>
     <t>pngimages/08_bell.png</t>

--- a/html/resources/aoiConditions/train1P2Block3.xlsx
+++ b/html/resources/aoiConditions/train1P2Block3.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/08_tipako2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.ogg</t>
+    <t>trainingaudio/08_tipako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.wav</t>
   </si>
   <si>
     <t>pngimages/08_bell.png</t>
